--- a/FINAL FASE 1/ANEXOS/GESTION/Carta Gantt.xlsx
+++ b/FINAL FASE 1/ANEXOS/GESTION/Carta Gantt.xlsx
@@ -20571,21 +20571,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="O42:R42"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -20594,20 +20579,35 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B26:B44"/>
+    <mergeCell ref="B45:B50"/>
     <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B26:B44"/>
-    <mergeCell ref="G25:H25"/>
     <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:S8"/>
     <mergeCell ref="T8:V8"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:S8"/>
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="S53:T53"/>
     <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="O48:P48"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
